--- a/src/llm_judge_evaluation.xlsx
+++ b/src/llm_judge_evaluation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,35 +448,96 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Full Evaluation</t>
+          <t>*   **Coherence</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>I will evaluate both reports separately.
-## Report 1: Corporate Restructuring and Regulatory Expansion
-**Coherence:** 9/10
-The report is very coherent. It clearly presents two related developments and consistently links them back to implications for investors. The structure is logical, moving from executive summary to key trends and then actionable insights.
-**Accuracy of Financial Insights:** 8/10
-The financial insights are generally accurate and well-reasoned. The link between proactive restructuring and resilient management is sound, as is the emphasis on broadened due diligence to include cultural and HR practices due to expanded regulatory scope. The anticipation of margin pressure from increased compliance costs is also a valid point.
-**Value to Investors:** 9/10
-This report offers significant value to investors. It highlights emerging risks (conduct risk, regulatory expansion beyond financial metrics) and provides actionable advice (scrutinize governance, broaden due diligence, anticipate sector-wide impact, account for evolving regulatory risk). The discussion of River Island provides a concrete example without getting bogged down in specifics.
-**Clarity of Writing:** 9/10
-The writing is exceptionally clear and concise. The language is professional and accessible, avoiding jargon where possible or explaining it implicitly. The use of bullet points enhances readability, and the executive summary effectively distills the core message.
-***
-## Report 2: Market Volatility and Policy Impact
-**Coherence:** 8/10
-The report is coherent in its overall theme of market volatility and policy impact. Each section flows logically from the executive summary to key trends and then investor implications. All points consistently relate back to the central theme.
-**Accuracy of Financial Insights:** 7/10
-The financial insights are mostly accurate, but some areas could be refined for greater precision or evidence.
-*   **"US service sector growth is stifled as trade wars increase operational costs and lead to job losses."** While trade wars can impact costs and jobs, linking it solely to US service sector *growth being stifled* without further nuance or specific data might be an oversimplification. Service sectors often show different resilience.
-*   **"The rapid decline of Tesla and ascent of BYD in the UK market signals a potent competitive threat..."** While BYD's growth and Tesla's challenges are real, characterising it as a "rapid decline" for Tesla in the *entire UK market* needs more specific data to support the strong claim, especially given the global nature of these companies. It's an important trend but might be stated too definitively.
-*   The overall impact of "investor relief over potential fiscal policy adjustments" on major indices reaching new highs is a reasonable interpretation of market sentiment.
-**Value to Investors:** 8/10
-The report provides good value by alerting investors to current policy-driven impacts and offering strategic advice like focusing on policy-resilient sectors, enhanced due diligence, and a tactical approach to volatility. The warning about the shifting automotive landscape is particularly timely and useful for sector-specific investors.
-**Clarity of Writing:** 9/10
-The writing is clear, direct, and easy to understand. The use of strong topic sentences and bullet points helps to convey complex information efficiently. The language is professional and engaging, making the report accessible to its target audience.
-Here's an illustrative image representing "Market Volatility and Policy Impact":</t>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>*   **Accuracy of Financial Insights</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>*   **Value to Investors</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>*   **Clarity of Writing</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>*   **Coherence</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>*   **Accuracy of Financial Insights</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>*   **Value to Investors</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>*   **Clarity of Writing</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>9</t>
         </is>
       </c>
     </row>

--- a/src/llm_judge_evaluation.xlsx
+++ b/src/llm_judge_evaluation.xlsx
@@ -460,31 +460,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>*   **Accuracy of Financial Insights</t>
+          <t>*   **Accuracy of financial insights</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>*   **Value to Investors</t>
+          <t>*   **Value to investors</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>*   **Clarity of Writing</t>
+          <t>*   **Clarity of writing</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -501,14 +501,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>*   **Accuracy of Financial Insights</t>
+          <t>*   **Accuracy of financial insights</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>*   **Value to Investors</t>
+          <t>*   **Value to investors</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>*   **Clarity of Writing</t>
+          <t>*   **Clarity of writing</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">

--- a/src/llm_judge_evaluation.xlsx
+++ b/src/llm_judge_evaluation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,96 +448,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>*   **Coherence</t>
+          <t>Full Evaluation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>*   **Accuracy of financial insights</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>*   **Value to investors</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>*   **Clarity of writing</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>*   **Coherence</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>*   **Accuracy of financial insights</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>*   **Value to investors</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>*   **Clarity of writing</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>9</t>
+          <t>Okay, here's an evaluation of each report section, broken down by the criteria requested.
+**Report Section 1: Economic Uncertainty and Policy Challenges**
+*   **Coherence (9/10):** The report presents a clear and logical narrative, starting with the executive summary and flowing into more specific trends with investor implications. The transition between sections is smooth.
+*   **Accuracy of Financial Insights (8/10):** Insights are generally accurate and well-supported by the trends outlined. The implications for investors are realistic and actionable. However, it lacks specific data points beyond the 3.3% US growth figure, which could strengthen the analysis. Mentioning specific companies or sectors with examples strengthens the report's analysis.
+*   **Value to Investors (8/10):** The report provides valuable context for investors navigating a complex economic environment. The highlighted implications, such as preparing for volatility and scrutinizing non-bank financial interconnections, are particularly helpful.
+*   **Clarity of Writing (9/10):** The writing is clear, concise, and avoids jargon. The key points are easy to understand for a sophisticated investor audience.
+**Report Section 2: Economic Instability and Regulatory Challenges**
+*   **Coherence (9/10):** Similar to the first report, this one maintains a solid structure, flowing logically from the executive summary to the key trends and investor implications. Each trend has a clear supporting point.
+*   **Accuracy of Financial Insights (8/10):**  The discussion on the potential benefits and risks of deregulation offers a balanced perspective. The point on assessing company-specific resilience and scrutiny for high debt levels is particularly pertinent. Although it uses a similar structure to the first report section, it improves it by using specific fines and numerical data to support claims.
+*   **Value to Investors (8/10):** The emphasis on navigating the regulatory rollercoaster and assessing company-specific resilience delivers actionable advice. The mention of "private equity backed" firms is prescient.
+*   **Clarity of Writing (9/10):** Writing is clear, well-organized, and uses concise language to explain complex topics.
+**Report Section 3: Executive Compensation Disparity**
+*   **Coherence (8/10):** The report flows well from the executive summary to key trends and implications. The structure is consistent with the other reports.
+*   **Accuracy of Financial Insights (7/10):** The report accurately describes the trend of rising executive compensation relative to worker pay. However, focusing more on the underlying reasons for the rise in executive pay, such as performance-based incentives or market competition for talent, would enhance the report.
+*   **Value to Investors (7/10):** The investor implications are valuable but could be strengthened by offering specific investment strategies or recommendations based on the trends identified. For example, investors may want to focus on shareholder activism to curb excessive executive pay or invest in companies known for fair labor practices.
+*   **Clarity of Writing (8/10):** The writing is clear and concise.
+**Report Section 4: Trade and Economic Volatility**
+*   **Coherence (9/10):** The report exhibits a strong logical flow, presenting its information in a clear and structured manner. Transitions between sections are smooth.
+*   **Accuracy of Financial Insights (8/10):** The analysis is generally accurate, supported by the identified trends. The recommendation for a stock picker's environment and the factor of geopolitical risk, are valid insights. The inclusion of the BYD vs. VW example adds credibility.
+*   **Value to Investors (8/10):**  The recommendation to "Navigate a Stock Picker's Environment" provides investors with a strategy to thrive in current market conditions. Factoring in the volatility of geopolitical risk is insightful for managing a portfolio.
+*   **Clarity of Writing (9/10):**  Exhibits clear, concise, and well-organized language, enhancing readability and comprehension.
+**Report Section 5: Market Volatility Amid Trade Tensions**
+*   **Coherence (8/10):** Presents a logical structure, moving effectively from the summary to trends and then to implications, although could benefit from more explicit signaling of transitions.
+*   **Accuracy of Financial Insights (8/10):** Offers sound insights related to market behavior and trade tensions though stronger source attribution could solidify claims.
+*   **Value to Investors (8/10):** The analysis offers actionable advice to maintain vigilance, seize the opportunity in volatility and understand the importance of diversification.
+*   **Clarity of Writing (8/10):** The language used is clear and direct although benefits from more compelling and engaging language to help highlight insight relevance.
+**Report Section 6: Report: Oil Price Volatility Drivers**
+*   **Coherence (9/10):** Provides a strong executive summary that encapsulates clear and concise information and is well-organized which supports strong coherence to all key components of the report.
+*   **Accuracy of Financial Insights (8/10):** Offers good insights due to the analysis and presentation of relevant financial information, while acknowledging market trends of elevated risk premiums in correlation to geopolitical factors, and provides solutions for those who would be seeking more clarity and options during heightened uncertainty.
+*   **Value to Investors (9/10):** The information is very valuable to investors, given investors gain an opportunity to understand how to hedge against a stagflationary shock, and how it can impact the oil industry.
+*   **Clarity of Writing (9/10):** The use of concise and direct language helps the reader understand the report.
+**Report Section 7: Global Trade Tensions Escalate**
+*   **Coherence (8/10):** Presents a reasonable introduction to the overall topic while maintaining a basic framework which is standard overall.
+*   **Accuracy of Financial Insights (8/10):** Offers quality insight regarding economic impact factors that result from trade tensions.
+*   **Value to Investors (8/10):** This section is valuable to investors due to the multiple recommendations, as well as the ability to offer an investor some insight into navigating shifting economies and potential risks.
+*   **Clarity of Writing (8/10):** It is well-written and structured for readability and understanding
+**Report Section 8: Corporate Restructuring and Regulation**
+*   **Coherence (8/10):** Offers well-constructed report with an insightful presentation structure on corporate restructuring while maintaining a basic standard, and would do well with more detail to strengthen section transitions.
+*   **Accuracy of Financial Insights (9/10):** The information is accurate and well-defined and highlights specific trends regarding the topic while supporting financial insights.
+*   **Value to Investors (9/10):** Offers tremendous value for investors who want to use debt investing to restructure or get into certain areas within the economy due to restructuring plans.
+*   **Clarity of Writing (9/10):** Well-written and easy to read.
+**General Observations and Recommendations:**
+*   **Data-Driven Analysis:**  While most reports identify key trends, incorporating more quantitative data (e.g., specific growth rates, profit margins, or correlations) would strengthen the analysis and make the insights more compelling.
+*   **Specificity:**  While avoiding overly specific investment advice, providing more concrete examples of companies, sectors, or potential investment strategies related to the themes discussed would increase the practical value for investors.
+*   **Conciseness:**  While the writing is generally clear, some sections could benefit from tighter editing to eliminate unnecessary words and phrases.
+I hope this detailed evaluation is helpful!</t>
         </is>
       </c>
     </row>

--- a/src/llm_judge_evaluation.xlsx
+++ b/src/llm_judge_evaluation.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,52 +453,18 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Okay, here's an evaluation of each report section, broken down by the criteria requested.
-**Report Section 1: Economic Uncertainty and Policy Challenges**
-*   **Coherence (9/10):** The report presents a clear and logical narrative, starting with the executive summary and flowing into more specific trends with investor implications. The transition between sections is smooth.
-*   **Accuracy of Financial Insights (8/10):** Insights are generally accurate and well-supported by the trends outlined. The implications for investors are realistic and actionable. However, it lacks specific data points beyond the 3.3% US growth figure, which could strengthen the analysis. Mentioning specific companies or sectors with examples strengthens the report's analysis.
-*   **Value to Investors (8/10):** The report provides valuable context for investors navigating a complex economic environment. The highlighted implications, such as preparing for volatility and scrutinizing non-bank financial interconnections, are particularly helpful.
-*   **Clarity of Writing (9/10):** The writing is clear, concise, and avoids jargon. The key points are easy to understand for a sophisticated investor audience.
-**Report Section 2: Economic Instability and Regulatory Challenges**
-*   **Coherence (9/10):** Similar to the first report, this one maintains a solid structure, flowing logically from the executive summary to the key trends and investor implications. Each trend has a clear supporting point.
-*   **Accuracy of Financial Insights (8/10):**  The discussion on the potential benefits and risks of deregulation offers a balanced perspective. The point on assessing company-specific resilience and scrutiny for high debt levels is particularly pertinent. Although it uses a similar structure to the first report section, it improves it by using specific fines and numerical data to support claims.
-*   **Value to Investors (8/10):** The emphasis on navigating the regulatory rollercoaster and assessing company-specific resilience delivers actionable advice. The mention of "private equity backed" firms is prescient.
-*   **Clarity of Writing (9/10):** Writing is clear, well-organized, and uses concise language to explain complex topics.
-**Report Section 3: Executive Compensation Disparity**
-*   **Coherence (8/10):** The report flows well from the executive summary to key trends and implications. The structure is consistent with the other reports.
-*   **Accuracy of Financial Insights (7/10):** The report accurately describes the trend of rising executive compensation relative to worker pay. However, focusing more on the underlying reasons for the rise in executive pay, such as performance-based incentives or market competition for talent, would enhance the report.
-*   **Value to Investors (7/10):** The investor implications are valuable but could be strengthened by offering specific investment strategies or recommendations based on the trends identified. For example, investors may want to focus on shareholder activism to curb excessive executive pay or invest in companies known for fair labor practices.
-*   **Clarity of Writing (8/10):** The writing is clear and concise.
-**Report Section 4: Trade and Economic Volatility**
-*   **Coherence (9/10):** The report exhibits a strong logical flow, presenting its information in a clear and structured manner. Transitions between sections are smooth.
-*   **Accuracy of Financial Insights (8/10):** The analysis is generally accurate, supported by the identified trends. The recommendation for a stock picker's environment and the factor of geopolitical risk, are valid insights. The inclusion of the BYD vs. VW example adds credibility.
-*   **Value to Investors (8/10):**  The recommendation to "Navigate a Stock Picker's Environment" provides investors with a strategy to thrive in current market conditions. Factoring in the volatility of geopolitical risk is insightful for managing a portfolio.
-*   **Clarity of Writing (9/10):**  Exhibits clear, concise, and well-organized language, enhancing readability and comprehension.
-**Report Section 5: Market Volatility Amid Trade Tensions**
-*   **Coherence (8/10):** Presents a logical structure, moving effectively from the summary to trends and then to implications, although could benefit from more explicit signaling of transitions.
-*   **Accuracy of Financial Insights (8/10):** Offers sound insights related to market behavior and trade tensions though stronger source attribution could solidify claims.
-*   **Value to Investors (8/10):** The analysis offers actionable advice to maintain vigilance, seize the opportunity in volatility and understand the importance of diversification.
-*   **Clarity of Writing (8/10):** The language used is clear and direct although benefits from more compelling and engaging language to help highlight insight relevance.
-**Report Section 6: Report: Oil Price Volatility Drivers**
-*   **Coherence (9/10):** Provides a strong executive summary that encapsulates clear and concise information and is well-organized which supports strong coherence to all key components of the report.
-*   **Accuracy of Financial Insights (8/10):** Offers good insights due to the analysis and presentation of relevant financial information, while acknowledging market trends of elevated risk premiums in correlation to geopolitical factors, and provides solutions for those who would be seeking more clarity and options during heightened uncertainty.
-*   **Value to Investors (9/10):** The information is very valuable to investors, given investors gain an opportunity to understand how to hedge against a stagflationary shock, and how it can impact the oil industry.
-*   **Clarity of Writing (9/10):** The use of concise and direct language helps the reader understand the report.
-**Report Section 7: Global Trade Tensions Escalate**
-*   **Coherence (8/10):** Presents a reasonable introduction to the overall topic while maintaining a basic framework which is standard overall.
-*   **Accuracy of Financial Insights (8/10):** Offers quality insight regarding economic impact factors that result from trade tensions.
-*   **Value to Investors (8/10):** This section is valuable to investors due to the multiple recommendations, as well as the ability to offer an investor some insight into navigating shifting economies and potential risks.
-*   **Clarity of Writing (8/10):** It is well-written and structured for readability and understanding
-**Report Section 8: Corporate Restructuring and Regulation**
-*   **Coherence (8/10):** Offers well-constructed report with an insightful presentation structure on corporate restructuring while maintaining a basic standard, and would do well with more detail to strengthen section transitions.
-*   **Accuracy of Financial Insights (9/10):** The information is accurate and well-defined and highlights specific trends regarding the topic while supporting financial insights.
-*   **Value to Investors (9/10):** Offers tremendous value for investors who want to use debt investing to restructure or get into certain areas within the economy due to restructuring plans.
-*   **Clarity of Writing (9/10):** Well-written and easy to read.
-**General Observations and Recommendations:**
-*   **Data-Driven Analysis:**  While most reports identify key trends, incorporating more quantitative data (e.g., specific growth rates, profit margins, or correlations) would strengthen the analysis and make the insights more compelling.
-*   **Specificity:**  While avoiding overly specific investment advice, providing more concrete examples of companies, sectors, or potential investment strategies related to the themes discussed would increase the practical value for investors.
-*   **Conciseness:**  While the writing is generally clear, some sections could benefit from tighter editing to eliminate unnecessary words and phrases.
-I hope this detailed evaluation is helpful!</t>
+          <t>## Investor Report Evaluation
+Here's a breakdown of the investor report, evaluating it based on the specified criteria:
+**Overall Score: 7.5/10**
+## 1. Coherence (8/10)
+*   **Justification:** The report demonstrates a good level of coherence. The flow of information is logical, transitioning smoothly between the executive summary, key trends, and implications/insights.  The two separate analysis reports (Retail Stocks &amp; Energy Price Cap) are clearly demarcated and logically structured within the same document.  The use of headings and subheadings enhances readability and organization. However, a *slightly* tighter connection between the two reports (e.g., brief cross-referencing or thematic links) could strengthen coherence further, particularly given the potential for overlapping investor concerns.
+## 2. Accuracy of Financial Insights (9/10)
+*   **Justification:** The financial insights presented appear accurate and well-supported. The analysis of analyst notes, market movements, and policy changes is grounded in observable data and logical reasoning. The numbers provided (e.g., 9% surge in Intel's stock, £35 increase in energy bills) seem realistic and relevant to the context.  The identification of key drivers (e.g., Deutsche Bank's report, government energy policies) is accurate.  One minor point: the reported 'minor' loss in the S&amp;P 500 could be more accurately described as a "slight decline," depending on exact percentage change. But overall, very strong.
+## 3. Value to Investors (8.5/10)
+*   **Justification:** The report provides valuable information for investors. It offers a concise overview of current market trends, highlights potential risks and opportunities, and suggests actionable insights for portfolio management. The analysis of sector-specific weaknesses, the impact of analyst notes, and the implications of policy changes all contribute to a more informed investment decision.  The "Look Beyond the Headlines" section is particularly effective. The connections made between energy price increases and consumer spending provide a strong narrative. However, the report could be enhanced by including more specific stock recommendations *within* the implications and insights sections, even if just a few examples.  More depth on potential impacts on specific companies would increase investment value.
+## 4. Clarity of Writing (9/10)
+*   **Justification:** The writing is clear, concise, and well-organized. The language is accessible to a general investor audience, avoiding overly technical jargon.  The use of bullet points and concise paragraphs makes the information easy to digest.  The explanations of key concepts (e.g., Ofgem's role, renewable energy subsidies) are understandable.  Minor improvements could involve occasionally using more active voice to enhance readability. Overall, very well-written and easy to understand.
+**In summary:** The report is a well-structured and informative piece of analysis providing valuable insights for investors. It demonstrates strong analytical skills and a clear understanding of the factors influencing market performance. While excellent, opportunities exist to refine the connection between the two reports and add more specific actionable insights.</t>
         </is>
       </c>
     </row>

--- a/src/llm_judge_evaluation.xlsx
+++ b/src/llm_judge_evaluation.xlsx
@@ -448,23 +448,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Full Evaluation</t>
+          <t>**Overall Score</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>## Investor Report Evaluation
-Here's a breakdown of the investor report, evaluating it based on the specified criteria:
-**Overall Score: 7.5/10**
-## 1. Coherence (8/10)
-*   **Justification:** The report demonstrates a good level of coherence. The flow of information is logical, transitioning smoothly between the executive summary, key trends, and implications/insights.  The two separate analysis reports (Retail Stocks &amp; Energy Price Cap) are clearly demarcated and logically structured within the same document.  The use of headings and subheadings enhances readability and organization. However, a *slightly* tighter connection between the two reports (e.g., brief cross-referencing or thematic links) could strengthen coherence further, particularly given the potential for overlapping investor concerns.
-## 2. Accuracy of Financial Insights (9/10)
-*   **Justification:** The financial insights presented appear accurate and well-supported. The analysis of analyst notes, market movements, and policy changes is grounded in observable data and logical reasoning. The numbers provided (e.g., 9% surge in Intel's stock, £35 increase in energy bills) seem realistic and relevant to the context.  The identification of key drivers (e.g., Deutsche Bank's report, government energy policies) is accurate.  One minor point: the reported 'minor' loss in the S&amp;P 500 could be more accurately described as a "slight decline," depending on exact percentage change. But overall, very strong.
-## 3. Value to Investors (8.5/10)
-*   **Justification:** The report provides valuable information for investors. It offers a concise overview of current market trends, highlights potential risks and opportunities, and suggests actionable insights for portfolio management. The analysis of sector-specific weaknesses, the impact of analyst notes, and the implications of policy changes all contribute to a more informed investment decision.  The "Look Beyond the Headlines" section is particularly effective. The connections made between energy price increases and consumer spending provide a strong narrative. However, the report could be enhanced by including more specific stock recommendations *within* the implications and insights sections, even if just a few examples.  More depth on potential impacts on specific companies would increase investment value.
-## 4. Clarity of Writing (9/10)
-*   **Justification:** The writing is clear, concise, and well-organized. The language is accessible to a general investor audience, avoiding overly technical jargon.  The use of bullet points and concise paragraphs makes the information easy to digest.  The explanations of key concepts (e.g., Ofgem's role, renewable energy subsidies) are understandable.  Minor improvements could involve occasionally using more active voice to enhance readability. Overall, very well-written and easy to understand.
-**In summary:** The report is a well-structured and informative piece of analysis providing valuable insights for investors. It demonstrates strong analytical skills and a clear understanding of the factors influencing market performance. While excellent, opportunities exist to refine the connection between the two reports and add more specific actionable insights.</t>
+          <t>8</t>
         </is>
       </c>
     </row>
